--- a/weekly_sales_data.xlsx
+++ b/weekly_sales_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E832482-6BB6-44E4-B762-305389103839}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,8 +157,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -176,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="O86" sqref="O86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +481,7 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -495,7 +498,7 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -512,7 +515,7 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
@@ -529,7 +532,7 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
@@ -546,7 +549,7 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
@@ -563,7 +566,7 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
@@ -580,7 +583,7 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
@@ -597,7 +600,7 @@
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
@@ -614,7 +617,7 @@
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -631,7 +634,7 @@
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
@@ -648,7 +651,7 @@
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
@@ -665,7 +668,7 @@
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
@@ -682,7 +685,7 @@
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
@@ -699,7 +702,7 @@
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
@@ -716,7 +719,7 @@
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
@@ -733,7 +736,7 @@
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
@@ -750,7 +753,7 @@
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
@@ -767,7 +770,7 @@
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
@@ -784,7 +787,7 @@
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
@@ -801,7 +804,7 @@
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
@@ -818,7 +821,7 @@
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
@@ -835,7 +838,7 @@
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
@@ -852,7 +855,7 @@
       <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
@@ -869,7 +872,7 @@
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
@@ -886,7 +889,7 @@
       <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
@@ -903,7 +906,7 @@
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
@@ -920,7 +923,7 @@
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
@@ -937,7 +940,7 @@
       <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
@@ -954,7 +957,7 @@
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
@@ -971,7 +974,7 @@
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
@@ -988,7 +991,7 @@
       <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
@@ -1005,7 +1008,7 @@
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
@@ -1022,7 +1025,7 @@
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
@@ -1039,7 +1042,7 @@
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
@@ -1056,7 +1059,7 @@
       <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
@@ -1073,7 +1076,7 @@
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
@@ -1090,7 +1093,7 @@
       <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
@@ -1107,7 +1110,7 @@
       <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
@@ -1124,7 +1127,7 @@
       <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
@@ -1141,7 +1144,7 @@
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
@@ -1158,7 +1161,7 @@
       <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
@@ -1175,7 +1178,7 @@
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
@@ -1192,7 +1195,7 @@
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
@@ -1209,7 +1212,7 @@
       <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
@@ -1226,7 +1229,7 @@
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
@@ -1243,7 +1246,7 @@
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
@@ -1260,7 +1263,7 @@
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
@@ -1277,7 +1280,7 @@
       <c r="B49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
@@ -1294,7 +1297,7 @@
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
@@ -1311,7 +1314,7 @@
       <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
@@ -1328,7 +1331,7 @@
       <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
@@ -1345,7 +1348,7 @@
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
@@ -1362,7 +1365,7 @@
       <c r="B54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
@@ -1379,13 +1382,13 @@
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>658</v>
       </c>
     </row>
@@ -1396,13 +1399,13 @@
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>580</v>
       </c>
     </row>
@@ -1413,13 +1416,13 @@
       <c r="B57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>552</v>
       </c>
     </row>
@@ -1430,13 +1433,13 @@
       <c r="B58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>496</v>
       </c>
     </row>
@@ -1447,13 +1450,13 @@
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>508</v>
       </c>
     </row>
@@ -1464,13 +1467,13 @@
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>531</v>
       </c>
     </row>
@@ -1481,13 +1484,13 @@
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>506</v>
       </c>
     </row>
@@ -1498,13 +1501,13 @@
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>559</v>
       </c>
     </row>
@@ -1515,13 +1518,13 @@
       <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>553</v>
       </c>
     </row>
@@ -1532,13 +1535,13 @@
       <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>476</v>
       </c>
     </row>
@@ -1549,13 +1552,13 @@
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>455</v>
       </c>
     </row>
@@ -1566,13 +1569,13 @@
       <c r="B66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>534</v>
       </c>
     </row>
@@ -1583,13 +1586,13 @@
       <c r="B67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>473</v>
       </c>
     </row>
@@ -1600,13 +1603,13 @@
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>473</v>
       </c>
     </row>
@@ -1617,13 +1620,13 @@
       <c r="B69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>575</v>
       </c>
     </row>
@@ -1634,13 +1637,13 @@
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>563</v>
       </c>
     </row>
@@ -1651,13 +1654,13 @@
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>581</v>
       </c>
     </row>
@@ -1668,13 +1671,13 @@
       <c r="B72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>577</v>
       </c>
     </row>
@@ -1685,13 +1688,13 @@
       <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>692</v>
       </c>
     </row>
@@ -1702,13 +1705,13 @@
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>712</v>
       </c>
     </row>
@@ -1719,13 +1722,13 @@
       <c r="B75" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>705</v>
       </c>
     </row>
@@ -1736,13 +1739,13 @@
       <c r="B76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>706</v>
       </c>
     </row>
@@ -1753,13 +1756,13 @@
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>599</v>
       </c>
     </row>
@@ -1770,13 +1773,13 @@
       <c r="B78" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>786</v>
       </c>
     </row>
@@ -1787,13 +1790,13 @@
       <c r="B79" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>809</v>
       </c>
     </row>
@@ -1804,13 +1807,13 @@
       <c r="B80" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>792</v>
       </c>
     </row>
@@ -1821,13 +1824,13 @@
       <c r="B81" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>675</v>
       </c>
     </row>
@@ -1838,13 +1841,13 @@
       <c r="B82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>710</v>
       </c>
     </row>
@@ -1855,13 +1858,13 @@
       <c r="B83" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>902</v>
       </c>
     </row>
@@ -1872,13 +1875,13 @@
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>789</v>
       </c>
     </row>
@@ -1889,13 +1892,13 @@
       <c r="B85" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>792</v>
       </c>
     </row>
@@ -1906,13 +1909,13 @@
       <c r="B86" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>748</v>
       </c>
     </row>
@@ -1923,13 +1926,13 @@
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>734</v>
       </c>
     </row>
@@ -1940,13 +1943,13 @@
       <c r="B88" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>721</v>
       </c>
     </row>
@@ -1957,13 +1960,13 @@
       <c r="B89" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>768</v>
       </c>
     </row>
@@ -1974,13 +1977,13 @@
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>676</v>
       </c>
     </row>
@@ -1991,13 +1994,13 @@
       <c r="B91" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>648</v>
       </c>
     </row>
@@ -2008,13 +2011,13 @@
       <c r="B92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>584</v>
       </c>
     </row>
@@ -2025,13 +2028,13 @@
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>633</v>
       </c>
     </row>
@@ -2042,13 +2045,13 @@
       <c r="B94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>689</v>
       </c>
     </row>
@@ -2059,13 +2062,13 @@
       <c r="B95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>754</v>
       </c>
     </row>
@@ -2076,13 +2079,13 @@
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>601</v>
       </c>
     </row>
@@ -2093,13 +2096,13 @@
       <c r="B97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>551</v>
       </c>
     </row>
@@ -2110,13 +2113,13 @@
       <c r="B98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>542</v>
       </c>
     </row>
@@ -2127,13 +2130,13 @@
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>480</v>
       </c>
     </row>
@@ -2144,13 +2147,13 @@
       <c r="B100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>663</v>
       </c>
     </row>

--- a/weekly_sales_data.xlsx
+++ b/weekly_sales_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E832482-6BB6-44E4-B762-305389103839}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F8B6A1-6E3D-4CAB-A916-67EF811C3074}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,20 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -491,7 +487,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44933</v>
       </c>
@@ -508,7 +504,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44940</v>
       </c>
@@ -525,7 +521,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44947</v>
       </c>
@@ -542,7 +538,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44954</v>
       </c>
@@ -559,7 +555,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44961</v>
       </c>
@@ -576,7 +572,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44968</v>
       </c>
@@ -593,7 +589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44975</v>
       </c>
@@ -610,7 +606,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44982</v>
       </c>
@@ -627,7 +623,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44988</v>
       </c>
@@ -644,7 +640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44995</v>
       </c>
@@ -661,7 +657,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45002</v>
       </c>
@@ -678,7 +674,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45009</v>
       </c>
@@ -695,7 +691,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45016</v>
       </c>
@@ -712,7 +708,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45023</v>
       </c>
@@ -729,7 +725,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45030</v>
       </c>
@@ -746,7 +742,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45037</v>
       </c>
@@ -763,7 +759,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45044</v>
       </c>
@@ -780,7 +776,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45051</v>
       </c>
@@ -797,7 +793,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45058</v>
       </c>
@@ -814,7 +810,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45065</v>
       </c>
@@ -831,7 +827,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45072</v>
       </c>
@@ -848,7 +844,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45079</v>
       </c>
@@ -865,7 +861,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45086</v>
       </c>
@@ -882,7 +878,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45093</v>
       </c>
@@ -899,7 +895,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45100</v>
       </c>
@@ -916,7 +912,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45107</v>
       </c>
@@ -933,7 +929,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45114</v>
       </c>
@@ -950,7 +946,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45121</v>
       </c>
@@ -967,7 +963,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45128</v>
       </c>
@@ -984,7 +980,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45135</v>
       </c>
@@ -1001,7 +997,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45142</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45149</v>
       </c>
@@ -1035,7 +1031,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45156</v>
       </c>
@@ -1052,7 +1048,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45163</v>
       </c>
@@ -1069,7 +1065,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45170</v>
       </c>
@@ -1086,7 +1082,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45177</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45184</v>
       </c>
@@ -1120,7 +1116,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45191</v>
       </c>
@@ -1137,7 +1133,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45198</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45205</v>
       </c>
@@ -1171,7 +1167,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45212</v>
       </c>
@@ -1188,7 +1184,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45219</v>
       </c>
@@ -1205,7 +1201,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45226</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45233</v>
       </c>
@@ -1239,7 +1235,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45240</v>
       </c>
@@ -1256,7 +1252,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45247</v>
       </c>
@@ -1273,7 +1269,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45254</v>
       </c>
@@ -1290,7 +1286,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45261</v>
       </c>
@@ -1307,7 +1303,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45268</v>
       </c>
@@ -1324,7 +1320,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45275</v>
       </c>
@@ -1341,7 +1337,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45282</v>
       </c>
@@ -1358,7 +1354,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45289</v>
       </c>
@@ -1375,7 +1371,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45292</v>
       </c>
@@ -1392,7 +1388,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45298</v>
       </c>
@@ -1409,7 +1405,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45305</v>
       </c>
@@ -1426,7 +1422,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45312</v>
       </c>
@@ -1443,7 +1439,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45319</v>
       </c>
@@ -1460,7 +1456,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45326</v>
       </c>
@@ -1477,7 +1473,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45333</v>
       </c>
@@ -1494,7 +1490,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45340</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45347</v>
       </c>
@@ -1528,7 +1524,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45354</v>
       </c>
@@ -1545,7 +1541,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45361</v>
       </c>
@@ -1562,7 +1558,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45368</v>
       </c>
@@ -1579,7 +1575,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45375</v>
       </c>
@@ -1596,7 +1592,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45382</v>
       </c>
@@ -1613,7 +1609,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45389</v>
       </c>
@@ -1630,7 +1626,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45396</v>
       </c>
@@ -1647,7 +1643,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45403</v>
       </c>
@@ -1664,7 +1660,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45410</v>
       </c>
@@ -1681,7 +1677,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45417</v>
       </c>
@@ -1698,7 +1694,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45424</v>
       </c>
@@ -1715,7 +1711,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45431</v>
       </c>
@@ -1732,7 +1728,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45438</v>
       </c>
@@ -1749,7 +1745,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45445</v>
       </c>
@@ -1766,7 +1762,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45452</v>
       </c>
@@ -1783,7 +1779,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45459</v>
       </c>
@@ -1800,7 +1796,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45466</v>
       </c>
@@ -1817,7 +1813,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45473</v>
       </c>
@@ -1834,7 +1830,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45480</v>
       </c>
@@ -1851,7 +1847,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45487</v>
       </c>
@@ -1868,7 +1864,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45494</v>
       </c>
@@ -1885,7 +1881,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45501</v>
       </c>
@@ -1902,7 +1898,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45508</v>
       </c>
@@ -1919,7 +1915,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45515</v>
       </c>
@@ -1936,7 +1932,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45522</v>
       </c>
@@ -1953,7 +1949,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45529</v>
       </c>
@@ -1970,7 +1966,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45536</v>
       </c>
@@ -1987,7 +1983,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45543</v>
       </c>
@@ -2004,7 +2000,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45550</v>
       </c>
@@ -2021,7 +2017,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45557</v>
       </c>
@@ -2038,7 +2034,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45564</v>
       </c>
@@ -2055,7 +2051,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45571</v>
       </c>
@@ -2072,7 +2068,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45578</v>
       </c>
@@ -2089,7 +2085,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45585</v>
       </c>
@@ -2106,7 +2102,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45592</v>
       </c>
@@ -2123,7 +2119,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45599</v>
       </c>
@@ -2140,7 +2136,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45606</v>
       </c>
@@ -2156,6 +2152,9 @@
       <c r="E100" s="5">
         <v>663</v>
       </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/weekly_sales_data.xlsx
+++ b/weekly_sales_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F8B6A1-6E3D-4CAB-A916-67EF811C3074}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E749EBC6-CA51-4D64-B48E-AD3B2A9255D6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,10 +56,10 @@
     <t>GIGABYTE</t>
   </si>
   <si>
-    <t>B091HTG6DQ</t>
+    <t>B08KGVH7YC</t>
   </si>
   <si>
-    <t>GC-WBAX210</t>
+    <t>B550 AORUS ELITE AX V2</t>
   </si>
 </sst>
 </file>
@@ -175,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,13 +446,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="Q97" sqref="Q97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
@@ -484,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>480</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>414</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>354</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>300</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>268</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>231</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>229</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>230</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>248</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>238</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>243</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>271</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="2">
-        <v>263</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>313</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="2">
-        <v>306</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>322</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>388</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="2">
-        <v>376</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="2">
-        <v>589</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="2">
-        <v>623</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="2">
-        <v>486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="2">
-        <v>618</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="2">
-        <v>690</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="2">
-        <v>580</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2">
-        <v>654</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="2">
-        <v>898</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="2">
-        <v>811</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="2">
-        <v>524</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="2">
-        <v>434</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="2">
-        <v>701</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="2">
-        <v>763</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="2">
-        <v>692</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="2">
-        <v>368</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="2">
-        <v>228</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="2">
-        <v>242</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="2">
-        <v>282</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="2">
-        <v>274</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="2">
-        <v>243</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>369</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="2">
-        <v>561</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="2">
-        <v>634</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="2">
-        <v>597</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>699</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>676</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="2">
-        <v>670</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="5">
-        <v>658</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1402,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="5">
-        <v>580</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="5">
-        <v>552</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="5">
-        <v>496</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="5">
-        <v>508</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="5">
-        <v>531</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="5">
-        <v>506</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="5">
-        <v>559</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="5">
-        <v>553</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="5">
-        <v>476</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="5">
-        <v>455</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="5">
-        <v>534</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="5">
-        <v>473</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="5">
-        <v>473</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="5">
-        <v>575</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="5">
-        <v>563</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="5">
-        <v>581</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="5">
-        <v>577</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="5">
-        <v>692</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="E74" s="5">
-        <v>712</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="5">
-        <v>705</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="5">
-        <v>706</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="5">
-        <v>599</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="5">
-        <v>786</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="5">
-        <v>809</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1810,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="5">
-        <v>792</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="5">
-        <v>675</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="5">
-        <v>710</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="5">
-        <v>902</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="E84" s="5">
-        <v>789</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="5">
-        <v>792</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="5">
-        <v>748</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="5">
-        <v>734</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="5">
-        <v>721</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="5">
-        <v>768</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="5">
-        <v>676</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="5">
-        <v>648</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="5">
-        <v>584</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2031,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="E93" s="5">
-        <v>633</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="E94" s="5">
-        <v>689</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="5">
-        <v>754</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2082,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="E96" s="5">
-        <v>601</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="5">
-        <v>551</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="5">
-        <v>542</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="5">
-        <v>480</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2150,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="5">
-        <v>663</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
